--- a/ExpData/HATCOL 4467/Caner's measurements.xlsx
+++ b/ExpData/HATCOL 4467/Caner's measurements.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt-yang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiaoxian\Github\CubicEOS\ExpData\HATCOL 4467\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12578C-9F23-4526-87B5-0471D404823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12036"/>
+    <workbookView xWindow="-46500" yWindow="1950" windowWidth="13100" windowHeight="12130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="VTD" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiple values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Temperature</t>
   </si>
@@ -46,11 +59,35 @@
   <si>
     <t>BIG</t>
   </si>
+  <si>
+    <t>p/bar</t>
+  </si>
+  <si>
+    <t>std%</t>
+  </si>
+  <si>
+    <t>Den:T_K</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>OMP</t>
+  </si>
+  <si>
+    <t>Vis:T_K</t>
+  </si>
+  <si>
+    <t>SoS:T_K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,20 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +433,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -410,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>85</v>
       </c>
@@ -435,7 +472,7 @@
         <v>937.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>65</v>
       </c>
@@ -460,7 +497,7 @@
         <v>952.18000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>45</v>
       </c>
@@ -485,7 +522,7 @@
         <v>966.58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25</v>
       </c>
@@ -510,7 +547,7 @@
         <v>981.18000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -533,6 +570,1691 @@
       <c r="H7">
         <f t="shared" si="1"/>
         <v>995.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32937921-A5C7-4187-83E6-CCDAB1118821}">
+  <dimension ref="B1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>5.1832260000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.252</v>
+      </c>
+      <c r="D2">
+        <v>278.31400000000002</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>996.35</v>
+      </c>
+      <c r="G2">
+        <v>967.32</v>
+      </c>
+      <c r="H2">
+        <v>987.15800000000002</v>
+      </c>
+      <c r="I2">
+        <v>278.63600000000002</v>
+      </c>
+      <c r="J2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>430.54149999999998</v>
+      </c>
+      <c r="L2">
+        <v>151.47059999999999</v>
+      </c>
+      <c r="M2">
+        <v>426.29230000000001</v>
+      </c>
+      <c r="N2">
+        <v>278.99900000000002</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2">
+        <v>1454.085</v>
+      </c>
+      <c r="Q2">
+        <v>1456.646</v>
+      </c>
+      <c r="R2">
+        <v>1904.52</v>
+      </c>
+      <c r="U2">
+        <f>I2</f>
+        <v>278.63600000000002</v>
+      </c>
+      <c r="V2">
+        <f>B2*100000</f>
+        <v>518322.60000000003</v>
+      </c>
+      <c r="W2">
+        <f>K2</f>
+        <v>430.54149999999998</v>
+      </c>
+      <c r="Y2">
+        <f>D2</f>
+        <v>278.31400000000002</v>
+      </c>
+      <c r="Z2">
+        <f>B2*100000</f>
+        <v>518322.60000000003</v>
+      </c>
+      <c r="AA2">
+        <f>F2</f>
+        <v>996.35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>9.9645810000000008</v>
+      </c>
+      <c r="C3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D3">
+        <v>278.31400000000002</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>996.67</v>
+      </c>
+      <c r="G3">
+        <v>967.59</v>
+      </c>
+      <c r="H3">
+        <v>994.577</v>
+      </c>
+      <c r="I3">
+        <v>278.65499999999997</v>
+      </c>
+      <c r="J3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K3">
+        <v>434.13440000000003</v>
+      </c>
+      <c r="L3">
+        <v>152.66970000000001</v>
+      </c>
+      <c r="M3">
+        <v>428.44009999999997</v>
+      </c>
+      <c r="N3">
+        <v>279.00400000000002</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1456.0709999999999</v>
+      </c>
+      <c r="Q3">
+        <v>1458.6990000000001</v>
+      </c>
+      <c r="R3">
+        <v>1909.7829999999999</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U22" si="0">I3</f>
+        <v>278.65499999999997</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V22" si="1">B3*100000</f>
+        <v>996458.10000000009</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W22" si="2">K3</f>
+        <v>434.13440000000003</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y22" si="3">D3</f>
+        <v>278.31400000000002</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z22" si="4">B3*100000</f>
+        <v>996458.10000000009</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA22" si="5">F3</f>
+        <v>996.67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>20.053744999999999</v>
+      </c>
+      <c r="C4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>278.32299999999998</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>997.35500000000002</v>
+      </c>
+      <c r="G4">
+        <v>968.15099999999995</v>
+      </c>
+      <c r="H4">
+        <v>993.63400000000001</v>
+      </c>
+      <c r="I4">
+        <v>278.64299999999997</v>
+      </c>
+      <c r="J4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K4">
+        <v>443.27690000000001</v>
+      </c>
+      <c r="L4">
+        <v>155.69479999999999</v>
+      </c>
+      <c r="M4">
+        <v>434.52789999999999</v>
+      </c>
+      <c r="N4">
+        <v>279.00200000000001</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1460.127</v>
+      </c>
+      <c r="Q4">
+        <v>1463.059</v>
+      </c>
+      <c r="R4">
+        <v>1920.991</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>278.64299999999997</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>2005374.5</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>443.27690000000001</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>278.32299999999998</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="4"/>
+        <v>2005374.5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="5"/>
+        <v>997.35500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>29.88279</v>
+      </c>
+      <c r="C5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>278.31799999999998</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>998.02099999999996</v>
+      </c>
+      <c r="G5">
+        <v>968.70500000000004</v>
+      </c>
+      <c r="H5">
+        <v>992.81100000000004</v>
+      </c>
+      <c r="I5">
+        <v>278.65100000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.01</v>
+      </c>
+      <c r="K5">
+        <v>451.96449999999999</v>
+      </c>
+      <c r="L5">
+        <v>158.50360000000001</v>
+      </c>
+      <c r="M5">
+        <v>439.91090000000003</v>
+      </c>
+      <c r="N5">
+        <v>279.00099999999998</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1464.1679999999999</v>
+      </c>
+      <c r="Q5">
+        <v>1467.278</v>
+      </c>
+      <c r="R5">
+        <v>1931.885</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>278.65100000000001</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>2988279</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>451.96449999999999</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>278.31799999999998</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>2988279</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="5"/>
+        <v>998.02099999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5.5938929999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>288.27100000000002</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>988.70600000000002</v>
+      </c>
+      <c r="G6">
+        <v>959.57500000000005</v>
+      </c>
+      <c r="H6">
+        <v>982.29899999999998</v>
+      </c>
+      <c r="I6">
+        <v>288.47399999999999</v>
+      </c>
+      <c r="J6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>230.09549999999999</v>
+      </c>
+      <c r="L6">
+        <v>88.115099999999998</v>
+      </c>
+      <c r="M6">
+        <v>228.61009999999999</v>
+      </c>
+      <c r="N6">
+        <v>288.89</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1419.2470000000001</v>
+      </c>
+      <c r="Q6">
+        <v>1422.3869999999999</v>
+      </c>
+      <c r="R6">
+        <v>1821.21</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>288.47399999999999</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>559389.29999999993</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>230.09549999999999</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>288.27100000000002</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>559389.29999999993</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>988.70600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>10.294200999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D7">
+        <v>288.27300000000002</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>989.029</v>
+      </c>
+      <c r="G7">
+        <v>959.851</v>
+      </c>
+      <c r="H7">
+        <v>990.15200000000004</v>
+      </c>
+      <c r="I7">
+        <v>288.47199999999998</v>
+      </c>
+      <c r="J7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>232.17529999999999</v>
+      </c>
+      <c r="L7">
+        <v>88.888199999999998</v>
+      </c>
+      <c r="M7">
+        <v>230.0051</v>
+      </c>
+      <c r="N7">
+        <v>288.88499999999999</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1421.2860000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1424.491</v>
+      </c>
+      <c r="R7">
+        <v>1826.422</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>288.47199999999998</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>1029420.1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>232.17529999999999</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>288.27300000000002</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>1029420.1</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>989.029</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>19.974958000000001</v>
+      </c>
+      <c r="C8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>288.27199999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>989.702</v>
+      </c>
+      <c r="G8">
+        <v>960.42</v>
+      </c>
+      <c r="H8">
+        <v>988.98400000000004</v>
+      </c>
+      <c r="I8">
+        <v>288.47800000000001</v>
+      </c>
+      <c r="J8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>236.49260000000001</v>
+      </c>
+      <c r="L8">
+        <v>90.447299999999998</v>
+      </c>
+      <c r="M8">
+        <v>232.74629999999999</v>
+      </c>
+      <c r="N8">
+        <v>288.89299999999997</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1425.395</v>
+      </c>
+      <c r="Q8">
+        <v>1428.749</v>
+      </c>
+      <c r="R8">
+        <v>1837.008</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>288.47800000000001</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>1997495.8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>236.49260000000001</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>288.27199999999999</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>1997495.8</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>989.702</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>30.058053000000001</v>
+      </c>
+      <c r="C9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>288.27199999999999</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>990.40200000000004</v>
+      </c>
+      <c r="G9">
+        <v>961.00800000000004</v>
+      </c>
+      <c r="H9">
+        <v>987.89499999999998</v>
+      </c>
+      <c r="I9">
+        <v>288.48700000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.03</v>
+      </c>
+      <c r="K9">
+        <v>240.9932</v>
+      </c>
+      <c r="L9">
+        <v>92.083799999999997</v>
+      </c>
+      <c r="M9">
+        <v>235.5882</v>
+      </c>
+      <c r="N9">
+        <v>288.887</v>
+      </c>
+      <c r="O9">
+        <v>1E-3</v>
+      </c>
+      <c r="P9">
+        <v>1429.6890000000001</v>
+      </c>
+      <c r="Q9">
+        <v>1433.2080000000001</v>
+      </c>
+      <c r="R9">
+        <v>1848.136</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>288.48700000000002</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>3005805.3000000003</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>240.9932</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>288.27199999999999</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>3005805.3000000003</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>990.40200000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>5.8513869999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.215</v>
+      </c>
+      <c r="D10">
+        <v>298.29199999999997</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>981.21699999999998</v>
+      </c>
+      <c r="G10">
+        <v>951.88800000000003</v>
+      </c>
+      <c r="H10">
+        <v>977.26599999999996</v>
+      </c>
+      <c r="I10">
+        <v>298.70999999999998</v>
+      </c>
+      <c r="J10">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>130.3075</v>
+      </c>
+      <c r="L10">
+        <v>53.226999999999997</v>
+      </c>
+      <c r="M10">
+        <v>129.74420000000001</v>
+      </c>
+      <c r="N10">
+        <v>299.03399999999999</v>
+      </c>
+      <c r="O10">
+        <v>1E-3</v>
+      </c>
+      <c r="P10">
+        <v>1385.251</v>
+      </c>
+      <c r="Q10">
+        <v>1388.2190000000001</v>
+      </c>
+      <c r="R10">
+        <v>1739.9449999999999</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>298.70999999999998</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>585138.69999999995</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>130.3075</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>298.29199999999997</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>585138.69999999995</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>981.21699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10.882013000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.09</v>
+      </c>
+      <c r="D11">
+        <v>298.29399999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>981.57600000000002</v>
+      </c>
+      <c r="G11">
+        <v>952.19600000000003</v>
+      </c>
+      <c r="H11">
+        <v>985.95</v>
+      </c>
+      <c r="I11">
+        <v>298.72399999999999</v>
+      </c>
+      <c r="J11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K11">
+        <v>131.41050000000001</v>
+      </c>
+      <c r="L11">
+        <v>53.663499999999999</v>
+      </c>
+      <c r="M11">
+        <v>130.44720000000001</v>
+      </c>
+      <c r="N11">
+        <v>299.041</v>
+      </c>
+      <c r="O11">
+        <v>1E-3</v>
+      </c>
+      <c r="P11">
+        <v>1387.473</v>
+      </c>
+      <c r="Q11">
+        <v>1390.4929999999999</v>
+      </c>
+      <c r="R11">
+        <v>1745.3879999999999</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>298.72399999999999</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>1088201.3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>131.41050000000001</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>298.29399999999998</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>1088201.3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>981.57600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>20.874179000000002</v>
+      </c>
+      <c r="C12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D12">
+        <v>298.29700000000003</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>982.29100000000005</v>
+      </c>
+      <c r="G12">
+        <v>952.80499999999995</v>
+      </c>
+      <c r="H12">
+        <v>984.37300000000005</v>
+      </c>
+      <c r="I12">
+        <v>298.745</v>
+      </c>
+      <c r="J12">
+        <v>0.107</v>
+      </c>
+      <c r="K12">
+        <v>133.68639999999999</v>
+      </c>
+      <c r="L12">
+        <v>54.555999999999997</v>
+      </c>
+      <c r="M12">
+        <v>131.89400000000001</v>
+      </c>
+      <c r="N12">
+        <v>299.04700000000003</v>
+      </c>
+      <c r="O12">
+        <v>1E-3</v>
+      </c>
+      <c r="P12">
+        <v>1391.87</v>
+      </c>
+      <c r="Q12">
+        <v>1395.011</v>
+      </c>
+      <c r="R12">
+        <v>1756.24</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>298.745</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>2087417.9000000001</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>133.68639999999999</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>298.29700000000003</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>2087417.9000000001</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>982.29100000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>30.038356</v>
+      </c>
+      <c r="C13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>298.29899999999998</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>982.94600000000003</v>
+      </c>
+      <c r="G13">
+        <v>953.36199999999997</v>
+      </c>
+      <c r="H13">
+        <v>983.09299999999996</v>
+      </c>
+      <c r="I13">
+        <v>298.74299999999999</v>
+      </c>
+      <c r="J13">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K13">
+        <v>135.80879999999999</v>
+      </c>
+      <c r="L13">
+        <v>55.4373</v>
+      </c>
+      <c r="M13">
+        <v>133.36660000000001</v>
+      </c>
+      <c r="N13">
+        <v>299.04899999999998</v>
+      </c>
+      <c r="O13">
+        <v>1E-3</v>
+      </c>
+      <c r="P13">
+        <v>1395.8789999999999</v>
+      </c>
+      <c r="Q13">
+        <v>1399.1420000000001</v>
+      </c>
+      <c r="R13">
+        <v>1766.2059999999999</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>298.74299999999999</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>3003835.6</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>135.80879999999999</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>298.29899999999998</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>3003835.6</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>982.94600000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>3.110951</v>
+      </c>
+      <c r="C14">
+        <v>1.093</v>
+      </c>
+      <c r="D14">
+        <v>313.18799999999999</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>970.08</v>
+      </c>
+      <c r="G14">
+        <v>940.44799999999998</v>
+      </c>
+      <c r="H14">
+        <v>969.43100000000004</v>
+      </c>
+      <c r="I14">
+        <v>313.68200000000002</v>
+      </c>
+      <c r="J14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K14">
+        <v>64.218599999999995</v>
+      </c>
+      <c r="L14">
+        <v>28.380299999999998</v>
+      </c>
+      <c r="M14">
+        <v>63.966999999999999</v>
+      </c>
+      <c r="N14">
+        <v>313.99700000000001</v>
+      </c>
+      <c r="O14">
+        <v>1E-3</v>
+      </c>
+      <c r="P14">
+        <v>1335.7470000000001</v>
+      </c>
+      <c r="Q14">
+        <v>1338.079</v>
+      </c>
+      <c r="R14">
+        <v>1624.0830000000001</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>313.68200000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>311095.09999999998</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>64.218599999999995</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>313.18799999999999</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>311095.09999999998</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>970.08</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>10.021882</v>
+      </c>
+      <c r="C15">
+        <v>0.107</v>
+      </c>
+      <c r="D15">
+        <v>313.18799999999999</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>970.60299999999995</v>
+      </c>
+      <c r="G15">
+        <v>940.90200000000004</v>
+      </c>
+      <c r="H15">
+        <v>969.69200000000001</v>
+      </c>
+      <c r="I15">
+        <v>313.7</v>
+      </c>
+      <c r="J15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K15">
+        <v>64.915099999999995</v>
+      </c>
+      <c r="L15">
+        <v>28.673999999999999</v>
+      </c>
+      <c r="M15">
+        <v>64.428799999999995</v>
+      </c>
+      <c r="N15">
+        <v>314.00099999999998</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1338.991</v>
+      </c>
+      <c r="Q15">
+        <v>1341.355</v>
+      </c>
+      <c r="R15">
+        <v>1631.5360000000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>313.7</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>1002188.2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>64.915099999999995</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>313.18799999999999</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>1002188.2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>970.60299999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>20.041321</v>
+      </c>
+      <c r="C16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>313.19299999999998</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>971.35500000000002</v>
+      </c>
+      <c r="G16">
+        <v>941.55200000000002</v>
+      </c>
+      <c r="H16">
+        <v>978.85599999999999</v>
+      </c>
+      <c r="I16">
+        <v>313.68799999999999</v>
+      </c>
+      <c r="J16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>66.089399999999998</v>
+      </c>
+      <c r="L16">
+        <v>29.145900000000001</v>
+      </c>
+      <c r="M16">
+        <v>65.206699999999998</v>
+      </c>
+      <c r="N16">
+        <v>314</v>
+      </c>
+      <c r="O16">
+        <v>1E-3</v>
+      </c>
+      <c r="P16">
+        <v>1343.6679999999999</v>
+      </c>
+      <c r="Q16">
+        <v>1346.097</v>
+      </c>
+      <c r="R16">
+        <v>1642.364</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>313.68799999999999</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>2004132.1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>66.089399999999998</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>313.19299999999998</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>2004132.1</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>971.35500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>30.558312999999998</v>
+      </c>
+      <c r="C17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>313.18799999999999</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>972.15300000000002</v>
+      </c>
+      <c r="G17">
+        <v>942.23599999999999</v>
+      </c>
+      <c r="H17">
+        <v>976.60599999999999</v>
+      </c>
+      <c r="I17">
+        <v>313.67899999999997</v>
+      </c>
+      <c r="J17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K17">
+        <v>67.364199999999997</v>
+      </c>
+      <c r="L17">
+        <v>29.6435</v>
+      </c>
+      <c r="M17">
+        <v>66.015100000000004</v>
+      </c>
+      <c r="N17">
+        <v>313.97199999999998</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1348.59</v>
+      </c>
+      <c r="Q17">
+        <v>1351.126</v>
+      </c>
+      <c r="R17">
+        <v>1653.905</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>313.67899999999997</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>3055831.3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>67.364199999999997</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>313.18799999999999</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>3055831.3</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>972.15300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>7.1267690000000004</v>
+      </c>
+      <c r="C18">
+        <v>0.156</v>
+      </c>
+      <c r="D18">
+        <v>323.15100000000001</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>963.17200000000003</v>
+      </c>
+      <c r="G18">
+        <v>933.29899999999998</v>
+      </c>
+      <c r="H18">
+        <v>964.24800000000005</v>
+      </c>
+      <c r="I18">
+        <v>323.50099999999998</v>
+      </c>
+      <c r="J18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K18">
+        <v>43.455800000000004</v>
+      </c>
+      <c r="L18">
+        <v>20.294599999999999</v>
+      </c>
+      <c r="M18">
+        <v>43.302199999999999</v>
+      </c>
+      <c r="N18">
+        <v>323.89</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1306.8810000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1308.761</v>
+      </c>
+      <c r="R18">
+        <v>1558.2539999999999</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>323.50099999999998</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>712676.9</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>43.455800000000004</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>323.15100000000001</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>712676.9</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>963.17200000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>12.616611000000001</v>
+      </c>
+      <c r="C19">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>323.14699999999999</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>963.60699999999997</v>
+      </c>
+      <c r="G19">
+        <v>933.67700000000002</v>
+      </c>
+      <c r="H19">
+        <v>964.423</v>
+      </c>
+      <c r="I19">
+        <v>323.49299999999999</v>
+      </c>
+      <c r="J19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>43.898899999999998</v>
+      </c>
+      <c r="L19">
+        <v>20.465199999999999</v>
+      </c>
+      <c r="M19">
+        <v>43.580500000000001</v>
+      </c>
+      <c r="N19">
+        <v>323.87700000000001</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1309.5920000000001</v>
+      </c>
+      <c r="Q19">
+        <v>1311.48</v>
+      </c>
+      <c r="R19">
+        <v>1564.25</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>323.49299999999999</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>1261661.1000000001</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>43.898899999999998</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>323.14699999999999</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="4"/>
+        <v>1261661.1000000001</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>963.60699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>17.59806</v>
+      </c>
+      <c r="C20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D20">
+        <v>323.15600000000001</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>963.99</v>
+      </c>
+      <c r="G20">
+        <v>934.00900000000001</v>
+      </c>
+      <c r="H20">
+        <v>977.25800000000004</v>
+      </c>
+      <c r="I20">
+        <v>323.49700000000001</v>
+      </c>
+      <c r="J20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K20">
+        <v>44.254100000000001</v>
+      </c>
+      <c r="L20">
+        <v>20.613700000000001</v>
+      </c>
+      <c r="M20">
+        <v>43.815800000000003</v>
+      </c>
+      <c r="N20">
+        <v>323.88400000000001</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1311.971</v>
+      </c>
+      <c r="Q20">
+        <v>1313.8779999999999</v>
+      </c>
+      <c r="R20">
+        <v>1569.5509999999999</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>323.49700000000001</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>1759806</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>44.254100000000001</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>323.15600000000001</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="4"/>
+        <v>1759806</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="5"/>
+        <v>963.99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>22.525763999999999</v>
+      </c>
+      <c r="C21">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <v>323.15600000000001</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>964.37400000000002</v>
+      </c>
+      <c r="G21">
+        <v>934.34299999999996</v>
+      </c>
+      <c r="H21">
+        <v>975.63300000000004</v>
+      </c>
+      <c r="I21">
+        <v>323.495</v>
+      </c>
+      <c r="J21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K21">
+        <v>44.619700000000002</v>
+      </c>
+      <c r="L21">
+        <v>20.765499999999999</v>
+      </c>
+      <c r="M21">
+        <v>44.058700000000002</v>
+      </c>
+      <c r="N21">
+        <v>323.88499999999999</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1314.329</v>
+      </c>
+      <c r="Q21">
+        <v>1316.2570000000001</v>
+      </c>
+      <c r="R21">
+        <v>1574.825</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>323.495</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>2252576.4</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>44.619700000000002</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>323.15600000000001</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>2252576.4</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>964.37400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>29.995273999999998</v>
+      </c>
+      <c r="C22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>323.154</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>964.95799999999997</v>
+      </c>
+      <c r="G22">
+        <v>934.84900000000005</v>
+      </c>
+      <c r="H22">
+        <v>973.45699999999999</v>
+      </c>
+      <c r="I22">
+        <v>323.50200000000001</v>
+      </c>
+      <c r="J22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>45.1569</v>
+      </c>
+      <c r="L22">
+        <v>20.989899999999999</v>
+      </c>
+      <c r="M22">
+        <v>44.409599999999998</v>
+      </c>
+      <c r="N22">
+        <v>323.88400000000001</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1317.8920000000001</v>
+      </c>
+      <c r="Q22">
+        <v>1319.86</v>
+      </c>
+      <c r="R22">
+        <v>1582.8309999999999</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>323.50200000000001</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>2999527.4</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>45.1569</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>323.154</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>2999527.4</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>964.95799999999997</v>
       </c>
     </row>
   </sheetData>
